--- a/ProtectionArea.xlsx
+++ b/ProtectionArea.xlsx
@@ -342,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C31"/>
+  <dimension ref="B3:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -353,12 +353,15 @@
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:4">
       <c r="C3">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>1</v>
       </c>
@@ -367,238 +370,242 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <f>C3+(B6*((B6/4)+1))</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
+        <f>C3+(B6*((B6/D3)+1))</f>
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <f>C3+(B7*((B7/4)+1))</f>
-        <v>17.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <f>C3+(B7*((B7/D3)+1))</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8">
-        <f>C3+(B8*((B8/4)+1))</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+        <f>C3+(B8*((B8/D3)+1))</f>
+        <v>18.666666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9">
-        <f>C3+(B9*((B9/4)+1))</f>
-        <v>23.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
+        <f>C3+((B9*3) + 1)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <f>C3+(B10*((B10/4)+1))</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+        <f>C3+(B10*((B10/D3)+1))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11">
-        <f>C3+(B11*((B11/4)+1))</f>
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+        <f>C3+(B11*((B11/D3)+1))</f>
+        <v>27.166666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12">
-        <f>C3+(B12*((B12/4)+1))</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+        <f>C3+(B12*((B12/D3)+1))</f>
+        <v>30.666666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13">
-        <f>C3+(B13*((B13/4)+1))</f>
-        <v>41.25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
+        <f>C3+(B13*((B13/D3)+1))</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14">
-        <f>C3+(B14*((B14/4)+1))</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
+        <f>C3+((B14*3) + 1)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15">
-        <f>C3+(B15*((B15/4)+1))</f>
-        <v>53.25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
+        <f>C3+(B15*((B15/D3)+1))</f>
+        <v>43.166666666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16">
-        <f>C3+(B16*((B16/4)+1))</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+        <f>C3+(B16*((B16/D3)+1))</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>13</v>
       </c>
       <c r="C17">
-        <f>C3+(B17*((B17/4)+1))</f>
-        <v>67.25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <f>C3+(B17*((B17/D3)+1))</f>
+        <v>53.166666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>14</v>
       </c>
       <c r="C18">
-        <f>C3+(B18*((B18/4)+1))</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+        <f>C3+(B18*((B18/D3)+1))</f>
+        <v>58.666666666666671</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>15</v>
       </c>
       <c r="C19">
-        <f>C3+(B19*((B19/4)+1))</f>
-        <v>83.25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
+        <f>C3+(B19*((B19/D3)+1))</f>
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20">
         <v>16</v>
       </c>
       <c r="C20">
-        <f>C3+(B20*((B20/4)+1))</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
+        <f>C3+(B20*((B20/D3)+1))</f>
+        <v>70.666666666666657</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21">
         <v>17</v>
       </c>
       <c r="C21">
-        <f>C3+(B21*((B21/4)+1))</f>
-        <v>101.25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
+        <f>C3+(B21*((B21/D3)+1))</f>
+        <v>77.166666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22">
         <v>18</v>
       </c>
       <c r="C22">
-        <f>C3+(B22*((B22/4)+1))</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
+        <f>C3+(B22*((B22/D3)+1))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23">
         <v>19</v>
       </c>
       <c r="C23">
-        <f>C3+(B23*((B23/4)+1))</f>
-        <v>121.25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
+        <f>C3+(B23*((B23/D3)+1))</f>
+        <v>91.166666666666657</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24">
         <v>20</v>
       </c>
       <c r="C24">
-        <f>C3+(B24*((B24/4)+1))</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+        <f>C3+(B24*((B24/D3)+1))</f>
+        <v>98.666666666666686</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25">
         <v>21</v>
       </c>
       <c r="C25">
-        <f>C3+(B25*((B25/4)+1))</f>
-        <v>143.25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+        <f>C3+(B25*((B25/D3)+1))</f>
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26">
         <v>22</v>
       </c>
       <c r="C26">
-        <f>C3+(B26*((B26/4)+1))</f>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+        <f>C3+(B26*((B26/D3)+1))</f>
+        <v>114.66666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27">
         <v>23</v>
       </c>
       <c r="C27">
-        <f>C3+(B27*((B27/4)+1))</f>
-        <v>167.25</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
+        <f>C3+(B27*((B27/D3)+1))</f>
+        <v>123.16666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28">
-        <f>C3+(B28*((B28/4)+1))</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
+        <f>C3+(B28*((B28/D3)+1))</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29">
         <v>25</v>
       </c>
       <c r="C29">
-        <f>C3+(B29*((B29/4)+1))</f>
-        <v>193.25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
+        <f>C3+(B29*((B29/D3)+1))</f>
+        <v>141.16666666666669</v>
+      </c>
+      <c r="H29">
+        <f>90 /27</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30">
         <v>26</v>
       </c>
       <c r="C30">
-        <f>C3+(B30*((B30/4)+1))</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <f>C3+(B30*((B30/D3)+1))</f>
+        <v>150.66666666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31">
         <v>27</v>
       </c>
       <c r="C31">
-        <f>C3+(B31*((B31/4)+1))</f>
-        <v>221.25</v>
+        <f>C3+((B31*3) + 1)</f>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
